--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23485.03404598979</v>
+        <v>15180.13883833538</v>
       </c>
     </row>
     <row r="7">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>213.5382021707743</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>221.2992638288017</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426341</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.9729252669621</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>57.43735581350172</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>196.2291113321757</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>343.2534342097765</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623969</v>
       </c>
       <c r="H15" t="n">
         <v>31.62322353306971</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.9729252669621</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>20.73297797415473</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>48.50583343253361</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>367.4176442674967</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>5.033780699103743</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>24.83686707040875</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>281.0972088665281</v>
       </c>
       <c r="F20" t="n">
-        <v>204.0461120219742</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.52738940623971</v>
+        <v>83.5273894062388</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>94.42724481421435</v>
       </c>
       <c r="G22" t="n">
-        <v>73.20665533839454</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -2380,13 +2380,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>294.5814239844241</v>
       </c>
       <c r="X23" t="n">
-        <v>40.24017550843278</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>187.9306356540154</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>120.2175023129949</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>8.176047758497797</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>149.6157531058527</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>5.033780699103743</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>187.9306356540155</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>149.6157531058528</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>334.6431300717749</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.2461524850684</v>
+        <v>158.0991137329003</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>29.12034060099202</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>20.4247425449678</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>93.45564828228871</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>137.6542732200403</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>185.7828595733337</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>185.600894128211</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>103.5038266670678</v>
+        <v>99.21930121558032</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>156.7012890994286</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>212.6615473203995</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>167.8191401812166</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>143.3193010541979</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>275.4684632867109</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>136.5306708275382</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.3193010541979</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>34.5151692130476</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>105.5188043066312</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>109.5540470185014</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>93.45564828228861</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>50.3816912934132</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1578.568163960874</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="C11" t="n">
-        <v>1140.425691144298</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="D11" t="n">
-        <v>704.5159063187421</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E11" t="n">
-        <v>270.7411614770372</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>270.7411614770372</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>1578.568163960874</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y11" t="n">
-        <v>1578.568163960874</v>
+        <v>662.4043965773304</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2202.779168087169</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="C13" t="n">
-        <v>2030.217456570394</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="D13" t="n">
-        <v>1864.339463771917</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E13" t="n">
-        <v>1694.581460022654</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="U13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="V13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="W13" t="n">
-        <v>2360.327577447737</v>
+        <v>831.6421918875324</v>
       </c>
       <c r="X13" t="n">
-        <v>2360.327577447737</v>
+        <v>831.6421918875324</v>
       </c>
       <c r="Y13" t="n">
-        <v>2360.327577447737</v>
+        <v>604.2225212016406</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>914.6420178934214</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="C14" t="n">
-        <v>914.6420178934214</v>
+        <v>1663.114413152674</v>
       </c>
       <c r="D14" t="n">
-        <v>914.6420178934214</v>
+        <v>1227.204628327118</v>
       </c>
       <c r="E14" t="n">
-        <v>716.4307943255671</v>
+        <v>793.4298834854135</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5314,16 +5314,16 @@
         <v>2101.256885969251</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.639935903077</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W14" t="n">
-        <v>1333.784481314111</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X14" t="n">
-        <v>914.6420178934214</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y14" t="n">
-        <v>914.6420178934214</v>
+        <v>2101.256885969251</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235861</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210686</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960911</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.861364220109</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
         <v>1298.314267034639</v>
@@ -5378,7 +5378,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R15" t="n">
         <v>1676.651116233592</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2202.779168087169</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C16" t="n">
-        <v>2030.217456570394</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D16" t="n">
-        <v>1864.339463771917</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E16" t="n">
-        <v>1694.581460022654</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U16" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V16" t="n">
-        <v>2360.327577447737</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="W16" t="n">
-        <v>2360.327577447737</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="X16" t="n">
-        <v>2360.327577447737</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="Y16" t="n">
-        <v>2360.327577447737</v>
+        <v>724.2907825224202</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4265856715607</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4265856715607</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4265856715607</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E17" t="n">
         <v>716.4307943255671</v>
@@ -5509,58 +5509,58 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001346</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435799</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228009</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715607</v>
+        <v>1586.115323992828</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030329</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043086</v>
@@ -5600,19 +5600,19 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q18" t="n">
         <v>1614.947661807679</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.2911785177464</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C19" t="n">
-        <v>52.2911785177464</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D19" t="n">
-        <v>52.2911785177464</v>
+        <v>381.705735685699</v>
       </c>
       <c r="E19" t="n">
-        <v>52.2911785177464</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
@@ -5700,25 +5700,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U19" t="n">
-        <v>611.2730910610244</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V19" t="n">
-        <v>324.3175829314549</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="W19" t="n">
-        <v>52.2911785177464</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="X19" t="n">
-        <v>52.2911785177464</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.2911785177464</v>
+        <v>720.1454400009515</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1526.86868437219</v>
+        <v>1166.555602307688</v>
       </c>
       <c r="C20" t="n">
-        <v>1088.726211555613</v>
+        <v>1166.555602307688</v>
       </c>
       <c r="D20" t="n">
-        <v>652.8164267300576</v>
+        <v>730.6458174821323</v>
       </c>
       <c r="E20" t="n">
-        <v>652.8164267300576</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438363</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V20" t="n">
-        <v>1526.86868437219</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W20" t="n">
-        <v>1526.86868437219</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="X20" t="n">
-        <v>1526.86868437219</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="Y20" t="n">
-        <v>1526.86868437219</v>
+        <v>1592.855172792596</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663899</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030321</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495854</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765391</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927007</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R21" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S21" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633325</v>
       </c>
       <c r="T21" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.938530508978</v>
       </c>
       <c r="U21" t="n">
-        <v>1329.66869333286</v>
+        <v>1329.668693332859</v>
       </c>
       <c r="V21" t="n">
-        <v>1130.551175394859</v>
+        <v>1130.551175394858</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280523</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669323</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461539</v>
+        <v>663.875206146153</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>470.4214336074024</v>
+        <v>473.2067801028069</v>
       </c>
       <c r="C22" t="n">
-        <v>297.8597220906274</v>
+        <v>473.2067801028069</v>
       </c>
       <c r="D22" t="n">
-        <v>297.8597220906274</v>
+        <v>307.3287873043296</v>
       </c>
       <c r="E22" t="n">
-        <v>297.8597220906274</v>
+        <v>307.3287873043296</v>
       </c>
       <c r="F22" t="n">
-        <v>121.1526680523836</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M22" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N22" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O22" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P22" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q22" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R22" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="T22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="U22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="V22" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="W22" t="n">
-        <v>889.6597230122813</v>
+        <v>473.2067801028069</v>
       </c>
       <c r="X22" t="n">
-        <v>889.6597230122813</v>
+        <v>473.2067801028069</v>
       </c>
       <c r="Y22" t="n">
-        <v>662.2400523263896</v>
+        <v>473.2067801028069</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>884.8517156860543</v>
+        <v>1188.845320663326</v>
       </c>
       <c r="C23" t="n">
-        <v>446.7092428694776</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="D23" t="n">
-        <v>446.7092428694776</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E23" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>1333.784481314111</v>
+        <v>1188.845320663326</v>
       </c>
       <c r="X23" t="n">
-        <v>1293.137839386401</v>
+        <v>1188.845320663326</v>
       </c>
       <c r="Y23" t="n">
-        <v>884.8517156860543</v>
+        <v>1188.845320663326</v>
       </c>
     </row>
     <row r="24">
@@ -6047,37 +6047,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.20655154895474</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C25" t="n">
-        <v>47.20655154895474</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D25" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O25" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P25" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q25" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R25" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="T25" t="n">
-        <v>647.412498915688</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="U25" t="n">
-        <v>525.9806783975114</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="V25" t="n">
-        <v>239.0251702679419</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="W25" t="n">
-        <v>239.0251702679419</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="X25" t="n">
-        <v>239.0251702679419</v>
+        <v>745.2331845165157</v>
       </c>
       <c r="Y25" t="n">
-        <v>239.0251702679419</v>
+        <v>745.2331845165157</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1782.900983623584</v>
+        <v>921.4750880558164</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>483.3326152392397</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E26" t="n">
         <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X26" t="n">
-        <v>2209.200554108492</v>
+        <v>921.4750880558164</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.200554108492</v>
+        <v>921.4750880558164</v>
       </c>
     </row>
     <row r="27">
@@ -6287,13 +6287,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
@@ -6302,7 +6302,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,7 +6311,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
         <v>803.387703298788</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.20655154895474</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895474</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T28" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U28" t="n">
-        <v>611.2730910610244</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V28" t="n">
-        <v>324.3175829314549</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W28" t="n">
-        <v>52.2911785177464</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X28" t="n">
-        <v>47.20655154895474</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.20655154895474</v>
+        <v>555.4042596134699</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1934.028006962829</v>
+        <v>1188.845320663326</v>
       </c>
       <c r="C29" t="n">
-        <v>1495.885534146253</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="D29" t="n">
-        <v>1059.975749320697</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E29" t="n">
-        <v>626.2010044789922</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F29" t="n">
-        <v>198.3335748882</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>198.3335748882</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6493,22 +6493,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1188.845320663326</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>1188.845320663326</v>
       </c>
       <c r="Y29" t="n">
-        <v>2360.327577447737</v>
+        <v>1188.845320663326</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6548,10 +6548,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="C31" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="D31" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="E31" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U31" t="n">
         <v>611.2730910610244</v>
       </c>
       <c r="V31" t="n">
-        <v>324.3175829314549</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="W31" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="X31" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="Y31" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>744.7955325958366</v>
+        <v>1173.712709371907</v>
       </c>
       <c r="C32" t="n">
-        <v>744.7955325958366</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D32" t="n">
-        <v>744.7955325958366</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E32" t="n">
-        <v>744.7955325958366</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F32" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001359</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435811</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867028</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6718,10 +6718,10 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
@@ -6733,19 +6733,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>2339.696524372012</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V32" t="n">
-        <v>1977.079574305839</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W32" t="n">
-        <v>1572.224119716872</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="X32" t="n">
-        <v>1153.081656296183</v>
+        <v>1173.712709371907</v>
       </c>
       <c r="Y32" t="n">
-        <v>744.7955325958366</v>
+        <v>1173.712709371907</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6785,10 +6785,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6061962785393</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6061962785393</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>647.412498915688</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U34" t="n">
-        <v>369.025866964431</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V34" t="n">
-        <v>369.025866964431</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="W34" t="n">
-        <v>369.025866964431</v>
+        <v>186.2512719732379</v>
       </c>
       <c r="X34" t="n">
-        <v>369.025866964431</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6061962785393</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>919.1237692072363</v>
+        <v>940.4973419450783</v>
       </c>
       <c r="C35" t="n">
-        <v>480.9812963906596</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="D35" t="n">
-        <v>480.9812963906596</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2172.85192681318</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>2172.85192681318</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W35" t="n">
-        <v>2172.85192681318</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="X35" t="n">
-        <v>1753.709463392491</v>
+        <v>1366.796912429986</v>
       </c>
       <c r="Y35" t="n">
-        <v>1345.423339692144</v>
+        <v>1366.796912429986</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3175829314549</v>
+        <v>147.4280679283288</v>
       </c>
       <c r="C37" t="n">
-        <v>151.7558714146798</v>
+        <v>147.4280679283288</v>
       </c>
       <c r="D37" t="n">
-        <v>151.7558714146798</v>
+        <v>147.4280679283288</v>
       </c>
       <c r="E37" t="n">
-        <v>151.7558714146798</v>
+        <v>147.4280679283288</v>
       </c>
       <c r="F37" t="n">
-        <v>151.7558714146798</v>
+        <v>147.4280679283288</v>
       </c>
       <c r="G37" t="n">
         <v>47.20655154895473</v>
@@ -7104,43 +7104,43 @@
         <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U37" t="n">
         <v>611.2730910610244</v>
       </c>
       <c r="V37" t="n">
-        <v>324.3175829314549</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="W37" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="X37" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
       <c r="Y37" t="n">
-        <v>324.3175829314549</v>
+        <v>339.2466866473159</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1941.185114027047</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1503.042641210471</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1067.132856384915</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>633.3581115432103</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>205.490681952418</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895473</v>
@@ -7171,25 +7171,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435804</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7207,19 +7207,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2145.517933689757</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X38" t="n">
-        <v>1941.185114027047</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y38" t="n">
-        <v>1941.185114027047</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>889.6597230122813</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C40" t="n">
-        <v>717.0980114955063</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D40" t="n">
-        <v>551.220018697029</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="E40" t="n">
-        <v>381.4620149477662</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
         <v>47.20655154895473</v>
@@ -7365,19 +7365,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>889.6597230122813</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V40" t="n">
-        <v>889.6597230122813</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W40" t="n">
-        <v>889.6597230122813</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X40" t="n">
-        <v>889.6597230122813</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.6597230122813</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.7092428694776</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895473</v>
@@ -7411,7 +7411,7 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
         <v>512.3249274228015</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2222.417808935072</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1963.347117456585</v>
       </c>
       <c r="V41" t="n">
-        <v>1957.24425759636</v>
+        <v>1963.347117456585</v>
       </c>
       <c r="W41" t="n">
-        <v>1552.388803007393</v>
+        <v>1558.491662867619</v>
       </c>
       <c r="X41" t="n">
-        <v>1133.246339586704</v>
+        <v>1558.491662867619</v>
       </c>
       <c r="Y41" t="n">
-        <v>724.9602158863573</v>
+        <v>1150.205539167272</v>
       </c>
     </row>
     <row r="42">
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C43" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D43" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="E43" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895473</v>
@@ -7599,22 +7599,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U43" t="n">
-        <v>369.0258669644309</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V43" t="n">
-        <v>82.07035883486139</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W43" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X43" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.20655154895473</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
         <v>805.440802286702</v>
@@ -7660,7 +7660,7 @@
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.6061962785392</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="C46" t="n">
-        <v>47.20655154895473</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="D46" t="n">
-        <v>47.20655154895473</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="E46" t="n">
-        <v>47.20655154895473</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895473</v>
@@ -7833,25 +7833,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U46" t="n">
-        <v>369.0258669644309</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V46" t="n">
-        <v>369.0258669644309</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="W46" t="n">
-        <v>369.0258669644309</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="X46" t="n">
-        <v>369.0258669644309</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.6061962785392</v>
+        <v>458.2776763869463</v>
       </c>
     </row>
   </sheetData>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>218.0124848065256</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>174.2084005785159</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.92750726483513</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>211.8687845560697</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>233.207886061112</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>80.33532108510781</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.92750726483513</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -23712,7 +23712,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>263.3529750741191</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -23737,10 +23737,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>380.9311639607541</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>36.78561819584644</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>169.9062027987576</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>259.2490859778651</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>148.3397885267596</v>
       </c>
       <c r="F20" t="n">
-        <v>219.5426432729101</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>80.51273868364699</v>
       </c>
       <c r="G22" t="n">
-        <v>89.88711324521222</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24189,13 +24189,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24214,16 +24214,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>106.2254760586529</v>
       </c>
       <c r="X23" t="n">
-        <v>374.7108632780496</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.969796877781874</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -24384,7 +24384,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>155.3852633187495</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>423.3746392188021</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>265.3352856806297</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24603,13 +24603,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>237.9040564208179</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>37.21483832501733</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>117.4085828356759</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>66.16376997130209</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24849,13 +24849,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>63.69383101279298</v>
+        <v>16.84086976496104</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -24919,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>404.6407074874189</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>236.0552420187334</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>70.76356458820382</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>105.2835638998814</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>247.9781885150772</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25171,7 +25171,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>70.87909043549018</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25326,7 +25326,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>59.58994191653895</v>
+        <v>63.87446736802644</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>238.8063753078889</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25447,16 +25447,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>43.81843724330167</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,22 +25551,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>7.120843316644709</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>19.77446752940889</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25605,10 +25605,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.5681114933478</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25636,7 +25636,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>73.12286818804068</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>19.77446752940889</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>234.7909711565238</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>316.5177704734274</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,7 +25930,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>305.396991767981</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,7 +26025,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>77.38044611931871</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -26034,16 +26034,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>124.5582922044481</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -26091,7 +26091,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349565.0929753102</v>
+        <v>349565.0929753101</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349565.0929753101</v>
+        <v>349565.09297531</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349565.0929753102</v>
+        <v>349565.0929753099</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>349565.0929753101</v>
+        <v>349565.0929753102</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349565.0929753103</v>
+        <v>349565.0929753101</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349565.0929753101</v>
+        <v>349565.0929753102</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349565.09297531</v>
+        <v>349565.0929753101</v>
       </c>
     </row>
     <row r="16">
@@ -26322,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>139826.0371901241</v>
+        <v>139826.0371901242</v>
       </c>
       <c r="F2" t="n">
         <v>139826.0371901242</v>
@@ -26331,31 +26331,31 @@
         <v>139826.0371901241</v>
       </c>
       <c r="H2" t="n">
-        <v>139826.0371901242</v>
+        <v>139826.0371901241</v>
       </c>
       <c r="I2" t="n">
         <v>139826.0371901242</v>
       </c>
       <c r="J2" t="n">
-        <v>139826.0371901242</v>
+        <v>139826.0371901241</v>
       </c>
       <c r="K2" t="n">
         <v>139826.0371901242</v>
       </c>
       <c r="L2" t="n">
-        <v>139826.0371901242</v>
+        <v>139826.0371901241</v>
       </c>
       <c r="M2" t="n">
         <v>139826.0371901241</v>
       </c>
       <c r="N2" t="n">
+        <v>139826.0371901242</v>
+      </c>
+      <c r="O2" t="n">
         <v>139826.0371901241</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>139826.0371901242</v>
-      </c>
-      <c r="P2" t="n">
-        <v>139826.0371901241</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>551135.2009906758</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>414.2905444231689</v>
       </c>
       <c r="F4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="H4" t="n">
+        <v>414.2905444231687</v>
+      </c>
+      <c r="I4" t="n">
         <v>414.2905444231689</v>
-      </c>
-      <c r="I4" t="n">
-        <v>414.290544423169</v>
       </c>
       <c r="J4" t="n">
         <v>414.2905444231689</v>
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-457774.5355546125</v>
+        <v>-458415.7736683879</v>
       </c>
       <c r="F6" t="n">
-        <v>93360.66543606318</v>
+        <v>92719.4273222878</v>
       </c>
       <c r="G6" t="n">
-        <v>93360.66543606312</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="H6" t="n">
-        <v>93360.66543606318</v>
+        <v>92719.42732228771</v>
       </c>
       <c r="I6" t="n">
-        <v>93360.66543606318</v>
+        <v>92719.4273222878</v>
       </c>
       <c r="J6" t="n">
-        <v>93360.66543606318</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="K6" t="n">
-        <v>93360.66543606318</v>
+        <v>92719.4273222878</v>
       </c>
       <c r="L6" t="n">
-        <v>93360.66543606319</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="M6" t="n">
-        <v>-53690.10296650832</v>
+        <v>-54331.34108028369</v>
       </c>
       <c r="N6" t="n">
-        <v>93360.66543606314</v>
+        <v>92719.4273222878</v>
       </c>
       <c r="O6" t="n">
-        <v>93360.66543606319</v>
+        <v>92719.42732228774</v>
       </c>
       <c r="P6" t="n">
-        <v>93360.66543606317</v>
+        <v>92719.4273222878</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932211</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,13 +31755,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -31770,10 +31770,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917233</v>
@@ -31864,16 +31864,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T12" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,7 +32232,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699081</v>
+        <v>72.33176314698991</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,19 +33362,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34210,7 +34210,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,7 +34222,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
@@ -34447,13 +34447,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116995</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415864</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35746,10 +35746,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785941</v>
+        <v>71.91914166785851</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
@@ -35974,10 +35974,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -36527,7 +36527,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
@@ -36539,7 +36539,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36682,7 +36682,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -37311,7 +37311,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37320,10 +37320,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37472,7 +37472,7 @@
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37621,7 +37621,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37779,10 +37779,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766673</v>
@@ -37858,7 +37858,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -38016,22 +38016,22 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38095,13 +38095,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
